--- a/data/income_statement/2digits/size/96_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/96_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>96-Other personal service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>96-Other personal service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,287 +841,327 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>422533.68937</v>
+        <v>436418.43491</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>468829.09089</v>
+        <v>487507.32019</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>524354.9524</v>
+        <v>538531.37263</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>479867.71812</v>
+        <v>504696.5177</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>462806.08057</v>
+        <v>486918.71403</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>308992.36837</v>
+        <v>336057.60296</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>352929.22854</v>
+        <v>381292.03975</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>417826.95296</v>
+        <v>459527.72191</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>513314.49321</v>
+        <v>569025.9914500001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>723796.53301</v>
+        <v>769004.3751599999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>863076.35245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>972235.54553</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>939884.023</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>397445.85676</v>
+        <v>409618.29227</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>443445.05414</v>
+        <v>460078.907</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>497196.25315</v>
+        <v>509688.92616</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>462721.00931</v>
+        <v>485429.67636</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>337653.67119</v>
+        <v>358955.08788</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>294690.21318</v>
+        <v>318423.1569</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>325002.94695</v>
+        <v>351956.3559</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>391551.09643</v>
+        <v>429512.10125</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>490777.05735</v>
+        <v>541568.42654</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>682075.2919</v>
+        <v>725046.54033</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>798206.7903</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>892953.9733300001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>873781.825</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>12790.08145</v>
+        <v>13104.55909</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>10314.74052</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>10227.88703</v>
+        <v>10572.55611</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>6779.43599</v>
+        <v>7151.04005</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>116182.21079</v>
+        <v>117030.60223</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>5725.51892</v>
+        <v>6199.40472</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>14136.05584</v>
+        <v>14146.30984</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>8706.665419999999</v>
+        <v>10070.90991</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>6363.169900000001</v>
+        <v>6685.98341</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>15008.98672</v>
+        <v>15136.55018</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>34474.61738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>42841.6474</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>36994.07</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>12297.75116</v>
+        <v>13695.58355</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>15069.29623</v>
+        <v>17113.67267</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>16930.81222</v>
+        <v>18269.89036</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>10367.27282</v>
+        <v>12115.80129</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>8970.19859</v>
+        <v>10933.02392</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>8576.636269999999</v>
+        <v>11435.04134</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>13790.22575</v>
+        <v>15189.37401</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>17569.19111</v>
+        <v>19944.71075</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>16174.26596</v>
+        <v>20771.5815</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>26712.25439</v>
+        <v>28821.28465</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>30394.94477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>36439.92479999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>29108.128</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2552.15162</v>
+        <v>2702.1182</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1958.03695</v>
+        <v>2066.84872</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2106.25563</v>
+        <v>2111.01503</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2100.61769</v>
+        <v>2513.43079</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1527.97812</v>
+        <v>1650.3239</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>901.94987</v>
+        <v>983.13886</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>559.35905</v>
+        <v>873.66603</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1264.58114</v>
+        <v>1866.55334</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>664.5754499999999</v>
+        <v>1207.49427</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2319.23051</v>
+        <v>2561.78858</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>3064.53354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>11141.58258</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>6673.132</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1525.56228</v>
+        <v>1674.15469</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1386.66996</v>
+        <v>1493.45454</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1604.18705</v>
+        <v>1608.94645</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1577.8559</v>
+        <v>1975.63616</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1084.29913</v>
+        <v>1205.82085</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>529.77291</v>
+        <v>609.96871</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>478.39859</v>
+        <v>524.44672</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1032.2988</v>
+        <v>1380.42793</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>398.88893</v>
+        <v>681.67349</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1433.92399</v>
+        <v>1676.48206</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2190.22485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>10228.613</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>6028.021</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>989.17385</v>
+        <v>990.5480200000001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>321.47538</v>
+        <v>323.50257</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>414.04426</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>353.13945</v>
+        <v>368.17229</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>317.82862</v>
+        <v>318.56062</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>324.47337</v>
+        <v>325.46656</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>57.51041</v>
+        <v>325.76926</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>83.91272000000001</v>
+        <v>337.44891</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>222.91209</v>
+        <v>475.05361</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>669.9655</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>545.78638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>554.54472</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>352.508</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>37.41549</v>
@@ -1235,7 +1176,7 @@
         <v>169.62234</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>125.85037</v>
+        <v>125.94243</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>47.70359</v>
@@ -1244,334 +1185,379 @@
         <v>23.45005</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>148.36962</v>
+        <v>148.6765</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>42.77443</v>
+        <v>50.76717</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>215.34102</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>328.52231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>358.42486</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>292.603</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>419981.53775</v>
+        <v>433716.31671</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>466871.05394</v>
+        <v>485440.47147</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>522248.69677</v>
+        <v>536420.3576</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>477767.10043</v>
+        <v>502183.08691</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>461278.10245</v>
+        <v>485268.39013</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>308090.4185</v>
+        <v>335074.4641</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>352369.86949</v>
+        <v>380418.37372</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>416562.37182</v>
+        <v>457661.16857</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>512649.91776</v>
+        <v>567818.4971799999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>721477.3025</v>
+        <v>766442.58658</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>860011.8189099999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>961093.9629500001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>933210.8909999999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>300185.16957</v>
+        <v>308584.23234</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>335731.12802</v>
+        <v>349339.27447</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>384339.12589</v>
+        <v>394209.56468</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>347997.83992</v>
+        <v>365185.67058</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>357550.24464</v>
+        <v>373930.21825</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>208154.94314</v>
+        <v>225634.98519</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>250179.54878</v>
+        <v>269732.0956</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>303351.8097</v>
+        <v>335219.86367</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>383734.20035</v>
+        <v>425799.50265</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>520377.77958</v>
+        <v>548351.8727599999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>639441.86274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>714351.33669</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>698163.318</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>29379.46223</v>
+        <v>29824.08006</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>31443.7966</v>
+        <v>32519.98533</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>27906.10957</v>
+        <v>28715.83503</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>24159.55397</v>
+        <v>26243.9834</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>8097.785</v>
+        <v>8787.12926</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>6291.232849999999</v>
+        <v>8023.49196</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>6973.97462</v>
+        <v>7688.674599999999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>11411.48838</v>
+        <v>12922.5633</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>14503.79473</v>
+        <v>17219.17214</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>26032.79554</v>
+        <v>29730.19245</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>29183.55426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>36092.93862</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>33752.377</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>124843.94159</v>
+        <v>128492.63762</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>133100.01064</v>
+        <v>138396.85901</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>173922.34662</v>
+        <v>176871.28802</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>134146.22923</v>
+        <v>140587.63694</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>204711.73717</v>
+        <v>211987.59526</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>46509.34838</v>
+        <v>51628.69775</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>60146.98333</v>
+        <v>65091.9285</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>77237.29221</v>
+        <v>85485.46849</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>110919.98286</v>
+        <v>119907.82112</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>131643.57926</v>
+        <v>139970.25004</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>149546.5738</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>172437.47635</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>201192.2</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>145197.87699</v>
+        <v>149455.08253</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>167349.90333</v>
+        <v>174583.97768</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>181434.74774</v>
+        <v>187546.51967</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>188179.31573</v>
+        <v>196757.72571</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>144048.09693</v>
+        <v>152348.3836</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>154089.59548</v>
+        <v>164707.41073</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>181181.79458</v>
+        <v>194959.29779</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>212547.65119</v>
+        <v>234591.7509</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>255548.28158</v>
+        <v>285826.48606</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>357202.79785</v>
+        <v>373106.87192</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>453814.73482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>498102.16626</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>453982.685</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>763.88876</v>
+        <v>812.43213</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>3837.41745</v>
+        <v>3838.45245</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>1075.92196</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1512.74099</v>
+        <v>1596.32453</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>692.62554</v>
+        <v>807.11013</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1264.76643</v>
+        <v>1275.38475</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1876.79625</v>
+        <v>1992.19471</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2155.37792</v>
+        <v>2220.08098</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>2762.14118</v>
+        <v>2846.02333</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>5498.60693</v>
+        <v>5544.558349999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>6896.99986</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>7718.75546</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>9236.056</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>119796.36818</v>
+        <v>125132.08437</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>131139.92592</v>
+        <v>136101.197</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>137909.57088</v>
+        <v>142210.79292</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>129769.26051</v>
+        <v>136997.41633</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>103727.85781</v>
+        <v>111338.17188</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>99935.47536</v>
+        <v>109439.47891</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>102190.32071</v>
+        <v>110686.27812</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>113210.56212</v>
+        <v>122441.3049</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>128915.71741</v>
+        <v>142018.99453</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>201099.52292</v>
+        <v>218090.71382</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>220569.95617</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>246742.62626</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>235047.573</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>126185.47631</v>
+        <v>131157.70705</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>138790.95417</v>
+        <v>146081.79194</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>155030.34895</v>
+        <v>161478.0232</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>146892.83682</v>
+        <v>157751.90024</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>125706.09576</v>
+        <v>134922.968</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>122937.11049</v>
+        <v>132733.26777</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>135854.36047</v>
+        <v>147496.52725</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>158798.31339</v>
+        <v>175265.64535</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>180422.59684</v>
+        <v>204323.92688</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>252872.33783</v>
+        <v>268899.03575</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>305635.33163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>336743.13825</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>317267.723</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>180.24779</v>
@@ -1580,13 +1566,13 @@
         <v>86.75867</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>78.04953</v>
+        <v>78.47487</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>330.91521</v>
+        <v>339.37448</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>573.9110899999999</v>
+        <v>574.3138</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>337.06388</v>
@@ -1604,175 +1590,200 @@
         <v>25.89728</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>540.63531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>571.5886700000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>68.371</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>10235.26682</v>
+        <v>10631.49478</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>13653.06255</v>
+        <v>13791.11834</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>13305.02192</v>
+        <v>13540.07624</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>13656.7633</v>
+        <v>14267.1163</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>9862.736419999999</v>
+        <v>10820.28224</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>9896.40783</v>
+        <v>10328.56601</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>9120.774140000001</v>
+        <v>10106.97099</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>10744.35704</v>
+        <v>12230.98318</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>15541.5402</v>
+        <v>17055.84085</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>21912.13696</v>
+        <v>22596.47267</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>25954.21836</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>28218.88035</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>26757.502</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>115769.9617</v>
+        <v>120345.96448</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>125051.13295</v>
+        <v>132203.91493</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>141647.2775</v>
+        <v>147859.47209</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>132905.15831</v>
+        <v>143145.40946</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>115269.44825</v>
+        <v>123528.37196</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>112703.63878</v>
+        <v>122067.63788</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>126637.46418</v>
+        <v>137293.43411</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>147922.53893</v>
+        <v>162903.24475</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>164873.4507</v>
+        <v>187260.48009</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>230934.30359</v>
+        <v>246276.6658</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>279140.47796</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>307952.66923</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>290441.85</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-6389.10813</v>
+        <v>-6025.622679999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-7651.02825</v>
+        <v>-9980.594939999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-17120.77807</v>
+        <v>-19267.23028</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-17123.57631</v>
+        <v>-20754.48391</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-21978.23795</v>
+        <v>-23584.79612</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-23001.63513</v>
+        <v>-23293.78886</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-33664.03976</v>
+        <v>-36810.24913</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-45587.75127</v>
+        <v>-52824.34045</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-51506.87943</v>
+        <v>-62304.93235</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-51772.81490999999</v>
+        <v>-50808.32193</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-85065.37546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-90000.51199</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-82220.14999999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1690.84735</v>
+        <v>6525.03692</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1429.36127</v>
+        <v>66484.80064</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3155.74917</v>
+        <v>6166.92871</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2359.29141</v>
+        <v>5061.90954</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1874.98983</v>
+        <v>4245.65518</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1638.50558</v>
+        <v>8509.797550000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2364.28251</v>
+        <v>6776.54858</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>5686.89284</v>
+        <v>8708.56558</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>4638.8123</v>
+        <v>8353.57185</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>7809.06488</v>
+        <v>17863.06218</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>9873.17914</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>27782.29998</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>50210.922</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1.45993</v>
+        <v>3707.25258</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0.08394</v>
+        <v>8514.73041</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>43.99301999999999</v>
@@ -1784,7 +1795,7 @@
         <v>25.81061</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0.09370999999999999</v>
+        <v>0.19699</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>0.04932</v>
@@ -1799,13 +1810,18 @@
         <v>3.25</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>2.92929</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>18.04331</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>4.658</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>63.24283999999999</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>531.78372</v>
+        <v>1406.44271</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>271.23299</v>
+        <v>1438.91405</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>303.72373</v>
+        <v>937.4021</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>299.09037</v>
+        <v>821.27092</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>272.0780999999999</v>
+        <v>1031.82774</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>204.33028</v>
+        <v>1329.29941</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>274.01405</v>
+        <v>1419.52392</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>476.71899</v>
+        <v>1819.18423</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>432.19883</v>
+        <v>1934.11988</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1436.11377</v>
+        <v>3750.78324</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1674.28682</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>3706.52888</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2787.761</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>77.99611</v>
@@ -1895,7 +1921,7 @@
         <v>37.15849</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>31.36474</v>
+        <v>34.36598</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>8.152290000000001</v>
@@ -1907,10 +1933,10 @@
         <v>1.2392</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>0</v>
+        <v>0.315</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>0.22737</v>
+        <v>169.72737</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>187.59906</v>
@@ -1918,20 +1944,25 @@
       <c r="M29" s="48" t="n">
         <v>175.49454</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>214.415</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>11.59536</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>17.05993</v>
+        <v>32.74231</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>5.41815</v>
+        <v>89.77278</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>74.84569</v>
@@ -1949,97 +1980,112 @@
         <v>0</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>0</v>
+        <v>28.87651</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>10.352</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>8.2515</v>
+        <v>16.08293</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>18.26594</v>
+        <v>52563.19565</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>47.28303</v>
+        <v>48.11483</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>35.63711</v>
+        <v>42.44471</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>41.43693</v>
+        <v>43.09069</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>63.12886</v>
+        <v>214.41953</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>24.41217</v>
+        <v>34.17226</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>35.77652</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>35.72486</v>
+        <v>205.03179</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>25.89223</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>25.76237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>10597.90619</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>65.56</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>264.63328</v>
+        <v>487.46687</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>365.0276500000001</v>
+        <v>3173.5643</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>555.13928</v>
+        <v>2188.92565</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>179.56527</v>
+        <v>1179.01808</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>514.78817</v>
+        <v>1190.18682</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>242.46603</v>
+        <v>4532.420349999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>683.02874</v>
+        <v>2006.42528</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>557.7989200000001</v>
+        <v>1274.9001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>672.0836400000001</v>
+        <v>1433.79078</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2670.69189</v>
+        <v>9540.471039999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2772.96545</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>7674.56822</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>7400.28</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0.39652</v>
@@ -2060,7 +2106,7 @@
         <v>23.365</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>0</v>
+        <v>0.12936</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1.1264</v>
@@ -2111,133 +2162,153 @@
         <v>3.63145</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>3.63432</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>1.951</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>730.36169</v>
+        <v>753.4345999999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>726.73065</v>
+        <v>730.69375</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2143.78431</v>
+        <v>2802.31268</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1620.65819</v>
+        <v>2791.83412</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>886.8407900000001</v>
+        <v>1820.70409</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1039.86304</v>
+        <v>2344.83761</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1299.06903</v>
+        <v>3232.53924</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>4592.727309999999</v>
+        <v>5554.51863</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3486.21815</v>
+        <v>4569.66607</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>3327.83648</v>
+        <v>4194.88516</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>5218.24067</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>5606.124519999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>39720.945</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1575.35228</v>
+        <v>2233.22304</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1867.60539</v>
+        <v>2950.08149</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1877.53121</v>
+        <v>3043.49172</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1756.70203</v>
+        <v>2312.55922</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1505.97193</v>
+        <v>3251.96144</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1358.8759</v>
+        <v>3201.41887</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1459.17821</v>
+        <v>3219.46563</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4926.23265</v>
+        <v>6561.15047</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>2075.60222</v>
+        <v>4872.930179999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>4776.781629999999</v>
+        <v>16063.77125</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>4399.986190000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>9723.43469</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>47802.17</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>264.80028</v>
+        <v>273.60509</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>257.9502</v>
+        <v>262.22329</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>300.60212</v>
+        <v>303.33482</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>259.20956</v>
+        <v>262.96214</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>186.21783</v>
+        <v>195.17598</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>145.35343</v>
+        <v>163.61523</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>259.2149</v>
+        <v>259.94363</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>210.64336</v>
+        <v>224.07455</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>294.76023</v>
+        <v>299.93896</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>491.96391</v>
+        <v>663.13501</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>497.52751</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>549.86427</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>681.3200000000001</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>32.31406</v>
+        <v>38.57699</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>258.10904</v>
@@ -2261,7 +2332,7 @@
         <v>102.30763</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>121.95721</v>
+        <v>524.02027</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>108.39885</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>1075.08129</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.7950499999999999</v>
@@ -2291,7 +2367,7 @@
         <v>102.7731</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>0.37365</v>
+        <v>54.91865</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>0.12733</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>49.504</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>11.266</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>346.86292</v>
+        <v>493.73011</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>386.66325</v>
+        <v>1386.72922</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>463.80575</v>
+        <v>1614.40848</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>201.95755</v>
+        <v>568.7499799999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>228.74911</v>
+        <v>1915.53626</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>197.7623</v>
+        <v>1629.36013</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>585.18262</v>
+        <v>2326.73976</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>336.07605</v>
+        <v>1651.31513</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>403.60752</v>
+        <v>2562.74998</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2846.88339</v>
+        <v>13934.37683</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1527.45512</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6758.53741</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>12451.821</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2369,16 +2455,16 @@
         <v>0</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>13.78508</v>
+        <v>37.1951</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>4.90675</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0.00296</v>
+        <v>0.13232</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0.00205</v>
+        <v>64.03784</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>217.53356</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>0.02275</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>0.58131</v>
+        <v>0.63344</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>4.83182</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0.0001</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>929.9986600000001</v>
+        <v>1425.88236</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>825.12185</v>
+        <v>903.2588900000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>995.22042</v>
+        <v>1007.8455</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>931.2000899999999</v>
+        <v>1116.51227</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>647.33415</v>
+        <v>697.57836</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>891.6278199999999</v>
+        <v>1206.35614</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>525.4079499999999</v>
+        <v>543.4095</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4277.20265</v>
+        <v>4583.320839999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1255.27501</v>
+        <v>1422.18293</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1005.37122</v>
+        <v>1033.6963</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1250.39542</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1290.42487</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>34657.763</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>5261.32266</v>
+        <v>6743.05832</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>3713.23174</v>
+        <v>4744.57118</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4184.215569999999</v>
+        <v>5234.756530000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>4734.55246</v>
+        <v>5692.88447</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3477.92211</v>
+        <v>4210.811650000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3750.21995</v>
+        <v>5281.96799</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4118.71101</v>
+        <v>6421.75918</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4834.980030000001</v>
+        <v>6646.8635</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>5355.712530000001</v>
+        <v>18347.66354</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>11405.28904</v>
+        <v>20484.10069</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>13086.92241</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>23098.85705</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>15961.889</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4958.074860000001</v>
+        <v>6439.81052</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>3483.81954</v>
+        <v>4515.15898</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>4075.94557</v>
+        <v>5126.48653</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>4615.18199</v>
+        <v>5565.80139</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3328.49397</v>
+        <v>4059.03856</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3625.46526</v>
+        <v>5118.85675</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>3960.54259</v>
+        <v>6154.754019999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4645.16482</v>
+        <v>6314.83769</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>5134.82989</v>
+        <v>14089.44604</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>10662.33949</v>
+        <v>14998.95751</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>11969.31076</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>21303.99835</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>14673.434</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>303.2478</v>
@@ -2558,115 +2669,130 @@
         <v>108.27</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>119.37047</v>
+        <v>127.08308</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>149.42814</v>
+        <v>151.77309</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>124.75469</v>
+        <v>163.11124</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>158.16842</v>
+        <v>267.00516</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>189.81521</v>
+        <v>332.02581</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>220.88264</v>
+        <v>4258.2175</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>742.94955</v>
+        <v>5485.14318</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1117.61165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1794.8587</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1288.455</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-11534.93572</v>
+        <v>-8476.867119999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-11802.50411</v>
+        <v>48809.55303</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-20026.77568</v>
+        <v>-21378.54982</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-21255.53939</v>
+        <v>-23698.01806</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-25087.14216</v>
+        <v>-26801.91403</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-26472.2254</v>
+        <v>-23267.37817</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-36877.64647</v>
+        <v>-39674.92536</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-49662.07111</v>
+        <v>-57323.78884</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-54299.38188</v>
+        <v>-77171.95422</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-60145.8207</v>
+        <v>-69493.13168999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-92679.10492</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-95040.50375</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-95773.287</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2471.86913</v>
+        <v>2639.16932</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3421.58149</v>
+        <v>5663.55927</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4863.250190000001</v>
+        <v>6231.43941</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3958.34353</v>
+        <v>4590.46773</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4338.41473</v>
+        <v>5805.578820000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3379.3312</v>
+        <v>4991.5564</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>4734.86143</v>
+        <v>5157.07705</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5284.8771</v>
+        <v>15962.8693</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>7081.72454</v>
+        <v>10572.05277</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>11114.80552</v>
+        <v>12335.57728</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>11938.64163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>13408.95636</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>17504.356</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>74.23999999999999</v>
+        <v>74.33650999999999</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>24.93282</v>
@@ -2678,115 +2804,130 @@
         <v>49.39755</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>12.90357</v>
+        <v>16.90357</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>20.71686</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>22.27726</v>
+        <v>22.27762</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>87.28128</v>
+        <v>93.04028</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>14.03308</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>118.91494</v>
+        <v>143.2285</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>54.43163</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>195.146</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2397.62913</v>
+        <v>2564.83281</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3396.64867</v>
+        <v>5638.62645</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>4522.27302</v>
+        <v>5890.46224</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3908.94598</v>
+        <v>4541.07018</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4325.51116</v>
+        <v>5788.67525</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3358.61434</v>
+        <v>4970.83954</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>4712.58417</v>
+        <v>5134.79943</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5197.59582</v>
+        <v>15869.82902</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>7067.69146</v>
+        <v>10558.01969</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>10995.89058</v>
+        <v>12192.34878</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>11884.21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>13354.52473</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>17309.21</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4537.409650000001</v>
+        <v>5063.036700000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5449.18163</v>
+        <v>7307.2021</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>19764.91961</v>
+        <v>26996.24343</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>6648.39936</v>
+        <v>7282.67577</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>5590.300230000001</v>
+        <v>6846.20316</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>9503.440050000001</v>
+        <v>13058.7041</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5969.45837</v>
+        <v>6729.92053</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>18470.89522</v>
+        <v>27440.43008</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>10748.91219</v>
+        <v>13848.07581</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>24982.11297</v>
+        <v>26891.63627</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>12945.39362</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>14346.11715</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>14911.146</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>127.99494</v>
+        <v>198.26774</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>43.18814</v>
+        <v>254.00817</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>155.97107</v>
@@ -2810,208 +2951,236 @@
         <v>1087.07634</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>630.33552</v>
+        <v>669.41191</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>455.67508</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>486.85675</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1211.413</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>540.54972</v>
+        <v>541.43083</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>838.06333</v>
+        <v>898.8224399999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>727.23376</v>
+        <v>727.9272</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>495.95998</v>
+        <v>496.52388</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>533.3510799999999</v>
+        <v>538.60288</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>403.29456</v>
+        <v>480.26422</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>535.09998</v>
+        <v>535.31346</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>826.85435</v>
+        <v>829.8531899999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>347.19391</v>
+        <v>352.81352</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>427.13128</v>
+        <v>745.29412</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1059.45659</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1059.85062</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>423.655</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3868.86499</v>
+        <v>4323.33813</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4567.93016</v>
+        <v>6154.37149</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>18881.71478</v>
+        <v>26112.34516</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>6103.39187</v>
+        <v>6737.10438</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>4970.93253</v>
+        <v>6221.58366</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>9043.404769999999</v>
+        <v>12521.69916</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>5417.070070000001</v>
+        <v>6177.31875</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>17335.59682</v>
+        <v>26302.13284</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>9314.64194</v>
+        <v>12408.18595</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>23924.64617</v>
+        <v>25476.93024</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>11430.26195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>12799.40978</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>13276.078</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-13600.47624</v>
+        <v>-10900.7345</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-13830.10425</v>
+        <v>47165.91020000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-34928.4451</v>
+        <v>-42143.35384</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-23945.59522</v>
+        <v>-26390.2261</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-26339.02766</v>
+        <v>-27842.53837</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-32596.33425</v>
+        <v>-31334.52587</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-38112.24341</v>
+        <v>-41247.76884</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-62848.08923</v>
+        <v>-68801.34962000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-57966.56953</v>
+        <v>-80447.97726</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-74013.12815</v>
+        <v>-84049.19068000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-93685.85691</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-95977.66454000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-93180.077</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>3854.09331</v>
+        <v>4143.610549999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3667.33228</v>
+        <v>6843.64533</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>3632.59743</v>
+        <v>3873.63582</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>3465.07173</v>
+        <v>3959.55217</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2891.58656</v>
+        <v>3385.07228</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>2842.03889</v>
+        <v>3881.08874</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2409.22342</v>
+        <v>2905.40768</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>2897.24115</v>
+        <v>3567.2952</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>3170.91149</v>
+        <v>3829.22235</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>6631.4895</v>
+        <v>7308.49068</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>7361.30629</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>9008.67837</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>10147.081</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-17454.56955</v>
+        <v>-15044.34505</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-17497.43653</v>
+        <v>40322.26487</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-38561.04253</v>
+        <v>-46016.98966</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-27410.66695</v>
+        <v>-30349.77827</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-29230.61422</v>
+        <v>-31227.61065</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-35438.37314</v>
+        <v>-35215.61461</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-40521.46683</v>
+        <v>-44153.17652</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-65745.33038</v>
+        <v>-72368.64481999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-61137.48102000001</v>
+        <v>-84277.19961</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-80644.61765</v>
+        <v>-91357.68136</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-101047.1632</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-104986.34291</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-103327.158</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3806</v>
+        <v>3864</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3872</v>
+        <v>3945</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3768</v>
+        <v>3840</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3425</v>
+        <v>3528</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2735</v>
+        <v>2830</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2537</v>
+        <v>2649</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2496</v>
+        <v>2609</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2625</v>
+        <v>2785</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2883</v>
+        <v>3045</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3126</v>
+        <v>3351</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3346</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3782</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>